--- a/thesis/figures/wang_2012_dataset_distribution.xlsx
+++ b/thesis/figures/wang_2012_dataset_distribution.xlsx
@@ -150,99 +150,36 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00FDFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="AB7942"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -313,11 +250,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="654246656"/>
-        <c:axId val="630001008"/>
+        <c:axId val="-1787025584"/>
+        <c:axId val="-1787055680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="654246656"/>
+        <c:axId val="-1787025584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="630001008"/>
+        <c:crossAx val="-1787055680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -368,7 +305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="630001008"/>
+        <c:axId val="-1787055680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -418,7 +355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="654246656"/>
+        <c:crossAx val="-1787025584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
